--- a/biology/Zoologie/Busard_cendré/Busard_cendré.xlsx
+++ b/biology/Zoologie/Busard_cendré/Busard_cendré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circus pygargus
 Le Busard cendré (Circus pygargus) est une espèce de rapaces diurnes migrateurs de la famille des Accipitridés. Il est parfois aussi appelé « busard de Montagu ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Busard cendré est un rapace mince, aux ailes étroites et pointues, à la silhouette fine, légère et élégante.
 Il existe un dimorphisme sexuel au niveau du plumage, qui permet de différencier les individus mâles et femelles. Le mâle possède un plumage gris cendré, le bout des ailes noires ainsi qu’un trait noir sur le dessus de chaque aile. Quant à la femelle, son plumage est brun sur le dessus, brun foncé sur le dessous et son croupion est blanc.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de micro-mammifères (type campagnols essentiellement), de petits oiseaux (type alouettes) et de leurs œufs, de lézards et d'insectes (principalement des orthoptères : sauterelles et criquets).
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans toute l'Europe, il niche au sol, normalement dans les milieux naturels (type lande ou prairie humide) à végétation basse (n'excédant pas 2 ou 3 mètres de hauteur). À la suite de la disparition ou de l'exploitation de ces milieux, le busard cendré niche alors dans les cultures, principalement céréalières. Il y a alors de grands risques de destructions des nids lors de travaux agricoles tels que les labours et la fauche.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Busard cendré bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne[1]. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Busard cendré bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est inscrit à l'annexe I de la directive Oiseaux de l'Union européenne. Il est donc interdit de le détruire, le mutiler, le capturer ou l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Busard_cendr%C3%A9</t>
+          <t>Busard_cendré</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +660,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le busard cendré pourrait disparaitre de la région Île-de-France. Il ne reste en 2019 qu'une quinzaine de couples dans la région[2].
+Le busard cendré pourrait disparaitre de la région Île-de-France. Il ne reste en 2019 qu'une quinzaine de couples dans la région.
 </t>
         </is>
       </c>
